--- a/rider/weekly/2017_19.xlsx
+++ b/rider/weekly/2017_19.xlsx
@@ -195,25 +195,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>252</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>210</c:v>
+                  <c:v>244</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>255</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>248</c:v>
+                  <c:v>218</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>192</c:v>
+                  <c:v>191</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>101</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>104</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -271,25 +271,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>226.27</c:v>
+                  <c:v>226.12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>215</c:v>
+                  <c:v>220.96</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>223.57</c:v>
+                  <c:v>213.68</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>235.67</c:v>
+                  <c:v>234.56</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>239.36</c:v>
+                  <c:v>239.61</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>111.24</c:v>
+                  <c:v>111.45</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>91.41</c:v>
+                  <c:v>91.19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -810,10 +810,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>252</v>
+        <v>187</v>
       </c>
       <c r="D2">
-        <v>226.27</v>
+        <v>226.12</v>
       </c>
       <c r="E2">
         <v>118.85</v>
@@ -827,10 +827,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>210</v>
+        <v>244</v>
       </c>
       <c r="D3">
-        <v>215</v>
+        <v>220.96</v>
       </c>
       <c r="E3">
         <v>119.01</v>
@@ -844,10 +844,10 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>255</v>
+        <v>207</v>
       </c>
       <c r="D4">
-        <v>223.57</v>
+        <v>213.68</v>
       </c>
       <c r="E4">
         <v>119.17</v>
@@ -861,10 +861,10 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="D5">
-        <v>235.67</v>
+        <v>234.56</v>
       </c>
       <c r="E5">
         <v>119.34</v>
@@ -878,10 +878,10 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D6">
-        <v>239.36</v>
+        <v>239.61</v>
       </c>
       <c r="E6">
         <v>119.5</v>
@@ -895,10 +895,10 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D7">
-        <v>111.24</v>
+        <v>111.45</v>
       </c>
       <c r="E7">
         <v>119.66</v>
@@ -912,10 +912,10 @@
         <v>18</v>
       </c>
       <c r="C8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D8">
-        <v>91.41</v>
+        <v>91.19</v>
       </c>
       <c r="E8">
         <v>119.82</v>
